--- a/data/trans_orig/P16-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>108030</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>91170</v>
+        <v>92703</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>124082</v>
+        <v>123893</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.395699871621229</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3339435419452292</v>
+        <v>0.3395598420347834</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4544975248163555</v>
+        <v>0.4538026625535319</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>148</v>
@@ -765,19 +765,19 @@
         <v>153726</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>137667</v>
+        <v>136494</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>169093</v>
+        <v>170257</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5893545760584389</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5277860007223525</v>
+        <v>0.523291903628232</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6482669981271472</v>
+        <v>0.652729685732936</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>259</v>
@@ -786,19 +786,19 @@
         <v>261756</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>236191</v>
+        <v>237418</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>284909</v>
+        <v>284691</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4903195395851654</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4424305456627409</v>
+        <v>0.4447299227831006</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5336887504293132</v>
+        <v>0.5332801533190493</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>164980</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>148928</v>
+        <v>149117</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>181840</v>
+        <v>180307</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.604300128378771</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5455024751836445</v>
+        <v>0.5461973374464681</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6660564580547704</v>
+        <v>0.6604401579652165</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>97</v>
@@ -836,19 +836,19 @@
         <v>107112</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>91745</v>
+        <v>90581</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>123171</v>
+        <v>124344</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4106454239415611</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3517330018728531</v>
+        <v>0.347270314267064</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4722139992776477</v>
+        <v>0.4767080963717682</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>257</v>
@@ -857,19 +857,19 @@
         <v>272092</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>248939</v>
+        <v>249157</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>297657</v>
+        <v>296430</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5096804604148346</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4663112495706867</v>
+        <v>0.4667198466809507</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.557569454337259</v>
+        <v>0.5552700772168995</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>188228</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>165217</v>
+        <v>165206</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>210517</v>
+        <v>208881</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3817425467181423</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3350743382036849</v>
+        <v>0.3350526753399378</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4269469596343258</v>
+        <v>0.4236300745834368</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>291</v>
@@ -982,19 +982,19 @@
         <v>294724</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>272503</v>
+        <v>272003</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>316595</v>
+        <v>317025</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.584828892706953</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5407362089567023</v>
+        <v>0.5397424125312007</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6282288128766303</v>
+        <v>0.6290824194132437</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>468</v>
@@ -1003,19 +1003,19 @@
         <v>482952</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>448812</v>
+        <v>451492</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>517066</v>
+        <v>514057</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4843931907809184</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4501516972844963</v>
+        <v>0.4528399626117324</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5186090513928698</v>
+        <v>0.5155912877907824</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>304847</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>282558</v>
+        <v>284194</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>327858</v>
+        <v>327869</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6182574532818577</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5730530403656742</v>
+        <v>0.5763699254165632</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.664925661796315</v>
+        <v>0.664947324660062</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>208</v>
@@ -1053,19 +1053,19 @@
         <v>209225</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>187354</v>
+        <v>186924</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>231446</v>
+        <v>231946</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.415171107293047</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3717711871233697</v>
+        <v>0.3709175805867565</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4592637910432977</v>
+        <v>0.4602575874687992</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>496</v>
@@ -1074,19 +1074,19 @@
         <v>514072</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>479958</v>
+        <v>482967</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>548212</v>
+        <v>545532</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5156068092190815</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4813909486071302</v>
+        <v>0.4844087122092176</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5498483027155038</v>
+        <v>0.5471600373882676</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>114667</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>98315</v>
+        <v>98906</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>133235</v>
+        <v>132354</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3596297755015103</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.308346014037053</v>
+        <v>0.3101998466178632</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4178650253655594</v>
+        <v>0.4151039650080829</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>205</v>
@@ -1199,19 +1199,19 @@
         <v>206285</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>189025</v>
+        <v>189893</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>224071</v>
+        <v>223252</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6150196362954398</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.56355919151331</v>
+        <v>0.5661476112403304</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6680484359255521</v>
+        <v>0.6656062873087371</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>320</v>
@@ -1220,19 +1220,19 @@
         <v>320951</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>296293</v>
+        <v>295619</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>349332</v>
+        <v>345356</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4905579961926067</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4528693869729724</v>
+        <v>0.4518382393836766</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5339363103163686</v>
+        <v>0.5278586448469195</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>204179</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>185611</v>
+        <v>186492</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>220531</v>
+        <v>219940</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6403702244984897</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5821349746344403</v>
+        <v>0.5848960349919172</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6916539859629458</v>
+        <v>0.6898001533821368</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>130</v>
@@ -1270,19 +1270,19 @@
         <v>129127</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>111341</v>
+        <v>112160</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>146387</v>
+        <v>145519</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3849803637045602</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3319515640744479</v>
+        <v>0.3343937126912629</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4364408084866901</v>
+        <v>0.4338523887596696</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>325</v>
@@ -1291,19 +1291,19 @@
         <v>333307</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>304926</v>
+        <v>308902</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>357965</v>
+        <v>358639</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5094420038073932</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4660636896836314</v>
+        <v>0.4721413551530804</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5471306130270276</v>
+        <v>0.5481617606163237</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>143162</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>125731</v>
+        <v>124499</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>161690</v>
+        <v>159720</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3991466478402017</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3505474283534468</v>
+        <v>0.347112887661614</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4508028285861773</v>
+        <v>0.4453100579663374</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>221</v>
@@ -1416,19 +1416,19 @@
         <v>214506</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>196175</v>
+        <v>194869</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>232524</v>
+        <v>232960</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5774744879191337</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5281246571818679</v>
+        <v>0.524608555873133</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6259786112560355</v>
+        <v>0.6271543048469764</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>371</v>
@@ -1437,19 +1437,19 @@
         <v>357669</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>330038</v>
+        <v>331702</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>382261</v>
+        <v>383566</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.489871868165114</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4520284894089441</v>
+        <v>0.4543079373259277</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5235535506826059</v>
+        <v>0.5253411356586823</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>215509</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>196981</v>
+        <v>198951</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>232940</v>
+        <v>234172</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6008533521597983</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5491971714138227</v>
+        <v>0.5546899420336627</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6494525716465533</v>
+        <v>0.652887112338386</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>163</v>
@@ -1487,19 +1487,19 @@
         <v>156950</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>138932</v>
+        <v>138496</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>175281</v>
+        <v>176587</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4225255120808664</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3740213887439645</v>
+        <v>0.3728456951530237</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4718753428181325</v>
+        <v>0.4753914441268675</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>375</v>
@@ -1508,19 +1508,19 @@
         <v>372458</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>347866</v>
+        <v>346561</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>400089</v>
+        <v>398425</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.510128131834886</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4764464493173941</v>
+        <v>0.4746588643413174</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5479715105910558</v>
+        <v>0.5456920626740722</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>95966</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81899</v>
+        <v>81101</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>109009</v>
+        <v>109457</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4720217731756276</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4028329447921131</v>
+        <v>0.3989091422809015</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5361782704672318</v>
+        <v>0.5383816547674226</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>125</v>
@@ -1633,19 +1633,19 @@
         <v>131602</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>116632</v>
+        <v>115960</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>144850</v>
+        <v>146472</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.633715739136164</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5616278464535496</v>
+        <v>0.5583899225106649</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6975053614828604</v>
+        <v>0.7053175600560306</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>225</v>
@@ -1654,19 +1654,19 @@
         <v>227568</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>207885</v>
+        <v>207717</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>246546</v>
+        <v>245482</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5537264439224753</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5058314923043418</v>
+        <v>0.505422741010893</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5999027355861696</v>
+        <v>0.5973151453804416</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>107342</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>94299</v>
+        <v>93851</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>121409</v>
+        <v>122207</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5279782268243723</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4638217295327681</v>
+        <v>0.4616183452325773</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5971670552078868</v>
+        <v>0.6010908577190984</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>73</v>
@@ -1704,19 +1704,19 @@
         <v>76066</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>62818</v>
+        <v>61196</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>91036</v>
+        <v>91708</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.366284260863836</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3024946385171397</v>
+        <v>0.294682439943969</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4383721535464505</v>
+        <v>0.441610077489335</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>179</v>
@@ -1725,19 +1725,19 @@
         <v>183408</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>164430</v>
+        <v>165494</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>203091</v>
+        <v>203259</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4462735560775247</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4000972644138306</v>
+        <v>0.4026848546195584</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4941685076956583</v>
+        <v>0.494577258989107</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>109434</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>93063</v>
+        <v>93965</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>125415</v>
+        <v>127439</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4040965370203733</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3436472233207205</v>
+        <v>0.3469760420386557</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4631086466137238</v>
+        <v>0.4705810162843775</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>174</v>
@@ -1850,19 +1850,19 @@
         <v>179722</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>162402</v>
+        <v>162013</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>193148</v>
+        <v>195300</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6461471017766371</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5838780069446063</v>
+        <v>0.5824801744413654</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6944162587104632</v>
+        <v>0.702152937257718</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>285</v>
@@ -1871,19 +1871,19 @@
         <v>289156</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>265370</v>
+        <v>264592</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>311192</v>
+        <v>311721</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5267384872591037</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4834087392240511</v>
+        <v>0.4819928314035903</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5668814576127389</v>
+        <v>0.5678450982206398</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>161377</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>145396</v>
+        <v>143372</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>177748</v>
+        <v>176846</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5959034629796267</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.536891353386276</v>
+        <v>0.5294189837156221</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6563527766792789</v>
+        <v>0.6530239579613442</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>96</v>
@@ -1921,19 +1921,19 @@
         <v>98422</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>84996</v>
+        <v>82844</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>115742</v>
+        <v>116131</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3538528982233629</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3055837412895368</v>
+        <v>0.2978470627422822</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4161219930553934</v>
+        <v>0.4175198255586349</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>251</v>
@@ -1942,19 +1942,19 @@
         <v>259799</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>237763</v>
+        <v>237234</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>283585</v>
+        <v>284363</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4732615127408963</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4331185423872614</v>
+        <v>0.4321549017793602</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5165912607759489</v>
+        <v>0.5180071685964097</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>238204</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>216746</v>
+        <v>213858</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>265253</v>
+        <v>263175</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3873060919715547</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3524168834201004</v>
+        <v>0.3477214316632333</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4312865186465663</v>
+        <v>0.4279082839970179</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>351</v>
@@ -2067,19 +2067,19 @@
         <v>355240</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>329190</v>
+        <v>327208</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>381410</v>
+        <v>380661</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5566113701413701</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5157950468100536</v>
+        <v>0.5126885804540354</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.597615750373921</v>
+        <v>0.5964432637416116</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>590</v>
@@ -2088,19 +2088,19 @@
         <v>593444</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>557596</v>
+        <v>556985</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>627751</v>
+        <v>630349</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4735252765359247</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4449216994935086</v>
+        <v>0.444434014602927</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5009003731084861</v>
+        <v>0.5029734320114094</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>376823</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>349774</v>
+        <v>351852</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>398281</v>
+        <v>401169</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6126939080284453</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5687134813534335</v>
+        <v>0.5720917160029821</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6475831165798996</v>
+        <v>0.6522785683367667</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>270</v>
@@ -2138,19 +2138,19 @@
         <v>282979</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>256809</v>
+        <v>257558</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>309029</v>
+        <v>311011</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4433886298586299</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4023842496260789</v>
+        <v>0.4035567362583883</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4842049531899462</v>
+        <v>0.4873114195459641</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>629</v>
@@ -2159,19 +2159,19 @@
         <v>659802</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>625495</v>
+        <v>622897</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>695650</v>
+        <v>696261</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5264747234640753</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.499099626891514</v>
+        <v>0.4970265679885906</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5550783005064914</v>
+        <v>0.555565985397073</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>330173</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>302631</v>
+        <v>305025</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>357778</v>
+        <v>358638</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4445114773780026</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4074315340197571</v>
+        <v>0.410654733363308</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4816760886308281</v>
+        <v>0.4828345785720545</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>418</v>
@@ -2284,19 +2284,19 @@
         <v>443670</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>415642</v>
+        <v>414937</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>472339</v>
+        <v>470553</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5662582943466228</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5304862823372474</v>
+        <v>0.5295861673080774</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6028489809179511</v>
+        <v>0.6005691429618668</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>750</v>
@@ -2305,19 +2305,19 @@
         <v>773843</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>735844</v>
+        <v>737762</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>810945</v>
+        <v>814956</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5070094976016863</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4821135372697036</v>
+        <v>0.4833703710033502</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5313182104780357</v>
+        <v>0.5339467139770314</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>412604</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>384999</v>
+        <v>384139</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>440146</v>
+        <v>437752</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5554885226219974</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.518323911369172</v>
+        <v>0.5171654214279455</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5925684659802432</v>
+        <v>0.5893452666366921</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>327</v>
@@ -2355,19 +2355,19 @@
         <v>339841</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>311172</v>
+        <v>312958</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>367869</v>
+        <v>368574</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4337417056533773</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3971510190820486</v>
+        <v>0.3994308570381335</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4695137176627522</v>
+        <v>0.4704138326919229</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>730</v>
@@ -2376,19 +2376,19 @@
         <v>752445</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>715343</v>
+        <v>711332</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>790444</v>
+        <v>788526</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4929905023983136</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4686817895219642</v>
+        <v>0.4660532860229686</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5178864627302964</v>
+        <v>0.5166296289966499</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>1327863</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1275041</v>
+        <v>1271980</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1387420</v>
+        <v>1385906</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4053892920892231</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3892629640014501</v>
+        <v>0.3883285284746935</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4235719234481347</v>
+        <v>0.4231097182316391</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1933</v>
@@ -2501,19 +2501,19 @@
         <v>1979475</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1920297</v>
+        <v>1927948</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2033805</v>
+        <v>2040337</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5857827492728864</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5682701241541868</v>
+        <v>0.5705344806960155</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6018605811283437</v>
+        <v>0.6037934919219309</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3268</v>
@@ -2522,19 +2522,19 @@
         <v>3307338</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3229296</v>
+        <v>3233351</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3391000</v>
+        <v>3399785</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4969911716007554</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4852638120019713</v>
+        <v>0.4858732256264137</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5095629345803319</v>
+        <v>0.5108830364390604</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>1947662</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1888105</v>
+        <v>1889619</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2000484</v>
+        <v>2003545</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5946107079107769</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5764280765518651</v>
+        <v>0.5768902817683609</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6107370359985489</v>
+        <v>0.6116714715253065</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1364</v>
@@ -2572,19 +2572,19 @@
         <v>1399722</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1345392</v>
+        <v>1338860</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1458900</v>
+        <v>1451249</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4142172507271136</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3981394188716563</v>
+        <v>0.3962065080780691</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4317298758458132</v>
+        <v>0.4294655193039845</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3242</v>
@@ -2593,19 +2593,19 @@
         <v>3347384</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3263722</v>
+        <v>3254937</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3425426</v>
+        <v>3421371</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5030088283992445</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4904370654196679</v>
+        <v>0.4891169635609396</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5147361879980287</v>
+        <v>0.5141267743735863</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>166790</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>148744</v>
+        <v>150044</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>183315</v>
+        <v>183708</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5692318432449075</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5076447137666672</v>
+        <v>0.5120790026855524</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6256279687220905</v>
+        <v>0.626971569445778</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>200</v>
@@ -2962,19 +2962,19 @@
         <v>222876</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>205796</v>
+        <v>205856</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>236785</v>
+        <v>236355</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7759075050770559</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7164490747061549</v>
+        <v>0.7166576031644424</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.824329650921109</v>
+        <v>0.8228335291042475</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>358</v>
@@ -2983,19 +2983,19 @@
         <v>389666</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>364186</v>
+        <v>365090</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>412122</v>
+        <v>414989</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6715430743500777</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6276319823199595</v>
+        <v>0.6291898939818974</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7102448920359098</v>
+        <v>0.7151848943118397</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>126219</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>109694</v>
+        <v>109301</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>144265</v>
+        <v>142965</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4307681567550926</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3743720312779099</v>
+        <v>0.3730284305542222</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4923552862333329</v>
+        <v>0.4879209973144477</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>56</v>
@@ -3033,19 +3033,19 @@
         <v>64369</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50460</v>
+        <v>50890</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>81449</v>
+        <v>81389</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2240924949229441</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.175670349078891</v>
+        <v>0.1771664708957529</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2835509252938451</v>
+        <v>0.2833423968355576</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>178</v>
@@ -3054,19 +3054,19 @@
         <v>190588</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>168132</v>
+        <v>165265</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>216068</v>
+        <v>215164</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3284569256499224</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2897551079640902</v>
+        <v>0.2848151056881602</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3723680176800405</v>
+        <v>0.3708101060181026</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>257052</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>233743</v>
+        <v>235814</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>281596</v>
+        <v>280791</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5084828181217016</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4623746626636075</v>
+        <v>0.466470710815944</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5570340829752106</v>
+        <v>0.5554419738834261</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>340</v>
@@ -3179,19 +3179,19 @@
         <v>375172</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>351477</v>
+        <v>351561</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>395159</v>
+        <v>394320</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7177158588622543</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6723866580075476</v>
+        <v>0.6725473750383156</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7559502136358043</v>
+        <v>0.7543463382373532</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>573</v>
@@ -3200,19 +3200,19 @@
         <v>632224</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>596880</v>
+        <v>598035</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>665822</v>
+        <v>660863</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.614849650676621</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5804768974541178</v>
+        <v>0.5816002655589719</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6475242619204234</v>
+        <v>0.6427010889334407</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>248475</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>223931</v>
+        <v>224736</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>271784</v>
+        <v>269713</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4915171818782983</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4429659170247894</v>
+        <v>0.4445580261165739</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5376253373363924</v>
+        <v>0.533529289184056</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>139</v>
@@ -3250,19 +3250,19 @@
         <v>147559</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>127572</v>
+        <v>128411</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>171254</v>
+        <v>171170</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2822841411377456</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2440497863641957</v>
+        <v>0.245653661762647</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3276133419924525</v>
+        <v>0.3274526249616851</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>378</v>
@@ -3271,19 +3271,19 @@
         <v>396034</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>362436</v>
+        <v>367395</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>431378</v>
+        <v>430223</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3851503493233789</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3524757380795766</v>
+        <v>0.3572989110665594</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4195231025458822</v>
+        <v>0.4183997344410281</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>174057</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>157270</v>
+        <v>156526</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>192630</v>
+        <v>192982</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5386819667160733</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4867290353785753</v>
+        <v>0.4844271481311104</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5961622208158678</v>
+        <v>0.5972539125185924</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>242</v>
@@ -3396,19 +3396,19 @@
         <v>259644</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>241954</v>
+        <v>242935</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>275537</v>
+        <v>274940</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7613743328341698</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7095007623960553</v>
+        <v>0.7123775391009713</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.807978691001751</v>
+        <v>0.8062282604310123</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>408</v>
@@ -3417,19 +3417,19 @@
         <v>433701</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>407683</v>
+        <v>409950</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>457178</v>
+        <v>458994</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.65302983921393</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6138547721124081</v>
+        <v>0.6172686086639688</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6883794318562163</v>
+        <v>0.691113744137785</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>149059</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>130486</v>
+        <v>130134</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>165846</v>
+        <v>166590</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4613180332839267</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4038377791841322</v>
+        <v>0.4027460874814077</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5132709646214246</v>
+        <v>0.5155728518688896</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>75</v>
@@ -3467,19 +3467,19 @@
         <v>81376</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>65483</v>
+        <v>66080</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>99066</v>
+        <v>98085</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2386256671658302</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1920213089982488</v>
+        <v>0.1937717395689873</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2904992376039447</v>
+        <v>0.2876224608990286</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>227</v>
@@ -3488,19 +3488,19 @@
         <v>230435</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>206958</v>
+        <v>205142</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>256453</v>
+        <v>254186</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3469701607860701</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3116205681437837</v>
+        <v>0.3088862558622149</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3861452278875918</v>
+        <v>0.3827313913360312</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>182854</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>161336</v>
+        <v>163937</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>202658</v>
+        <v>201240</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.488937545451719</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4313991215208778</v>
+        <v>0.4383558364552827</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5418916716422768</v>
+        <v>0.538101951702981</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>276</v>
@@ -3613,19 +3613,19 @@
         <v>288905</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>272208</v>
+        <v>269445</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>306295</v>
+        <v>305346</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7446496181818962</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7016128767537652</v>
+        <v>0.6944921532941554</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7894740380741314</v>
+        <v>0.7870277578815114</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>440</v>
@@ -3634,19 +3634,19 @@
         <v>471759</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>443580</v>
+        <v>445663</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>498126</v>
+        <v>496720</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6191414534656365</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5821591910486323</v>
+        <v>0.5848935736800789</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6537463585603607</v>
+        <v>0.6519015998421689</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>191128</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>171324</v>
+        <v>172742</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>212646</v>
+        <v>210045</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5110624545482809</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4581083283577233</v>
+        <v>0.461898048297019</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5686008784791221</v>
+        <v>0.5616441635447172</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>94</v>
@@ -3684,19 +3684,19 @@
         <v>99069</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>81679</v>
+        <v>82628</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>115766</v>
+        <v>118529</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2553503818181038</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2105259619258687</v>
+        <v>0.2129722421184888</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2983871232462348</v>
+        <v>0.3055078467058446</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>274</v>
@@ -3705,19 +3705,19 @@
         <v>290197</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>263830</v>
+        <v>265236</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>318376</v>
+        <v>316293</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3808585465343635</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3462536414396392</v>
+        <v>0.3480984001578311</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4178408089513675</v>
+        <v>0.4151064263199211</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>113454</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>96724</v>
+        <v>99049</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>127727</v>
+        <v>129165</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5336043367105333</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4549212218520592</v>
+        <v>0.465853149804727</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.600732907344664</v>
+        <v>0.6074999844582918</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>171</v>
@@ -3830,19 +3830,19 @@
         <v>178391</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>167230</v>
+        <v>165874</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>188515</v>
+        <v>189640</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.812378950820937</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7615499933600225</v>
+        <v>0.755376775788218</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8584821427714885</v>
+        <v>0.8636072600670226</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>275</v>
@@ -3851,19 +3851,19 @@
         <v>291845</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>270083</v>
+        <v>269257</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>309364</v>
+        <v>311539</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.675240421825625</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6248887283407037</v>
+        <v>0.6229793590264044</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7157744563163922</v>
+        <v>0.7208067191542014</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>99164</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>84891</v>
+        <v>83453</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>115894</v>
+        <v>113569</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4663956632894667</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3992670926553359</v>
+        <v>0.392500015541708</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5450787781479405</v>
+        <v>0.5341468501952727</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>41</v>
@@ -3901,19 +3901,19 @@
         <v>41200</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>31076</v>
+        <v>29951</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>52361</v>
+        <v>53717</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1876210491790629</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1415178572285116</v>
+        <v>0.1363927399329774</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2384500066399779</v>
+        <v>0.244623224211782</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>133</v>
@@ -3922,19 +3922,19 @@
         <v>140364</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>122845</v>
+        <v>120670</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>162126</v>
+        <v>162952</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3247595781743749</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2842255436836078</v>
+        <v>0.2791932808457983</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3751112716592961</v>
+        <v>0.3770206409735954</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>161466</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>144106</v>
+        <v>143835</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>176204</v>
+        <v>177842</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5893331098222466</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5259698078038888</v>
+        <v>0.5249798690365743</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6431250485388205</v>
+        <v>0.6491032418631734</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>208</v>
@@ -4047,19 +4047,19 @@
         <v>217841</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>202717</v>
+        <v>204827</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>230162</v>
+        <v>231979</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7804003561649447</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7262212433358789</v>
+        <v>0.7337802219532262</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8245385270752019</v>
+        <v>0.8310471498172153</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>361</v>
@@ -4068,19 +4068,19 @@
         <v>379307</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>357423</v>
+        <v>357732</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>402760</v>
+        <v>400942</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6857578463324241</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6461927882413221</v>
+        <v>0.6467518479023301</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7281595319091446</v>
+        <v>0.724873006641627</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>112515</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>97777</v>
+        <v>96139</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>129875</v>
+        <v>130146</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4106668901777534</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3568749514611796</v>
+        <v>0.3508967581368266</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4740301921961114</v>
+        <v>0.4750201309634257</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>60</v>
@@ -4118,19 +4118,19 @@
         <v>61299</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>48978</v>
+        <v>47161</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>76423</v>
+        <v>74313</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2195996438350553</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.175461472924798</v>
+        <v>0.1689528501827842</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.273778756664121</v>
+        <v>0.2662197780467738</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>168</v>
@@ -4139,19 +4139,19 @@
         <v>173814</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>150361</v>
+        <v>152179</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>195698</v>
+        <v>195389</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3142421536675759</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2718404680908555</v>
+        <v>0.275126993358373</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3538072117586779</v>
+        <v>0.3532481520976699</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>346581</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>319309</v>
+        <v>318531</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>371615</v>
+        <v>370838</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5229141863610651</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4817658787779633</v>
+        <v>0.4805932110945686</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5606839507909501</v>
+        <v>0.5595118951364009</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>429</v>
@@ -4264,19 +4264,19 @@
         <v>469574</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>443884</v>
+        <v>441532</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>494478</v>
+        <v>494925</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6767629035884666</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6397382610397123</v>
+        <v>0.6363473326620446</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7126559652156259</v>
+        <v>0.7132991538602521</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>748</v>
@@ -4285,19 +4285,19 @@
         <v>816155</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>777100</v>
+        <v>780017</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>853943</v>
+        <v>854231</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6015999910105125</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5728117403199013</v>
+        <v>0.5749621703226059</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6294542326921815</v>
+        <v>0.6296661101946782</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>316207</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>291173</v>
+        <v>291950</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>343479</v>
+        <v>344257</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4770858136389348</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4393160492090498</v>
+        <v>0.4404881048635992</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5182341212220366</v>
+        <v>0.5194067889054313</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>207</v>
@@ -4335,19 +4335,19 @@
         <v>224279</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>199375</v>
+        <v>198928</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>249969</v>
+        <v>252321</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3232370964115335</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.287344034784374</v>
+        <v>0.2867008461397479</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3602617389602879</v>
+        <v>0.3636526673379556</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>506</v>
@@ -4356,19 +4356,19 @@
         <v>540486</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>502698</v>
+        <v>502410</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>579541</v>
+        <v>576624</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3984000089894874</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3705457673078185</v>
+        <v>0.3703338898053217</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4271882596800987</v>
+        <v>0.4250378296773941</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>322969</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>294095</v>
+        <v>294674</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>352307</v>
+        <v>352127</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4156762464464941</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3785138385792268</v>
+        <v>0.3792594102751726</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4534357029251188</v>
+        <v>0.4532037747526802</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>445</v>
@@ -4481,19 +4481,19 @@
         <v>484367</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>456253</v>
+        <v>453790</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>514585</v>
+        <v>514510</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5879291008465606</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5538037262931945</v>
+        <v>0.5508142924307555</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6246073667654498</v>
+        <v>0.6245172759856994</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>734</v>
@@ -4502,19 +4502,19 @@
         <v>807336</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>766930</v>
+        <v>766849</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>851013</v>
+        <v>846471</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5043249390510247</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4790844753788018</v>
+        <v>0.4790338605239345</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5316089710750893</v>
+        <v>0.5287714935854734</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>454003</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>424665</v>
+        <v>424845</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>482877</v>
+        <v>482298</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.584323753553506</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5465642970748812</v>
+        <v>0.5467962252473202</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6214861614207734</v>
+        <v>0.6207405897248275</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>312</v>
@@ -4552,19 +4552,19 @@
         <v>339486</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>309268</v>
+        <v>309343</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>367600</v>
+        <v>370063</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4120708991534394</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3753926332345501</v>
+        <v>0.3754827240143008</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4461962737068054</v>
+        <v>0.4491857075692445</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>738</v>
@@ -4573,19 +4573,19 @@
         <v>793489</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>749812</v>
+        <v>754354</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>833895</v>
+        <v>833976</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4956750609489753</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4683910289249107</v>
+        <v>0.4712285064145266</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5209155246211982</v>
+        <v>0.5209661394760648</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>1725223</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1671005</v>
+        <v>1658965</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1787117</v>
+        <v>1782327</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5041572306352069</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4883132980448602</v>
+        <v>0.4847948968854915</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5222444836700096</v>
+        <v>0.5208444651202009</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2311</v>
@@ -4698,19 +4698,19 @@
         <v>2496770</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2438499</v>
+        <v>2441380</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2556146</v>
+        <v>2553562</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7022458102440358</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6858565087422758</v>
+        <v>0.6866667273713194</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7189461887262381</v>
+        <v>0.7182192685268474</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3897</v>
@@ -4719,19 +4719,19 @@
         <v>4221993</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4131107</v>
+        <v>4141009</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4300007</v>
+        <v>4303933</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6050953259057548</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5920696276823236</v>
+        <v>0.5934886826711058</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6162763389321386</v>
+        <v>0.6168389854762925</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>1696771</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1634877</v>
+        <v>1639667</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1750989</v>
+        <v>1763029</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.495842769364793</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4777555163299904</v>
+        <v>0.4791555348797992</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5116867019551398</v>
+        <v>0.5152051031145085</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>984</v>
@@ -4769,19 +4769,19 @@
         <v>1058637</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>999261</v>
+        <v>1001845</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1116908</v>
+        <v>1114027</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2977541897559643</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.281053811273762</v>
+        <v>0.2817807314731526</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3141434912577243</v>
+        <v>0.3133332726286807</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2602</v>
@@ -4790,19 +4790,19 @@
         <v>2755408</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2677394</v>
+        <v>2673468</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2846294</v>
+        <v>2836392</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3949046740942453</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3837236610678611</v>
+        <v>0.3831610145237075</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4079303723176761</v>
+        <v>0.4065113173288943</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>173095</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>154654</v>
+        <v>155244</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>190396</v>
+        <v>190531</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.589238340193144</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5264617220570961</v>
+        <v>0.5284692624458555</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6481308164137469</v>
+        <v>0.6485922230671339</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>191</v>
@@ -5159,19 +5159,19 @@
         <v>200648</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>183861</v>
+        <v>184838</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>215938</v>
+        <v>215917</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6949982457828499</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6368526473482389</v>
+        <v>0.6402343954607028</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7479576912329441</v>
+        <v>0.7478869602907043</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>350</v>
@@ -5180,19 +5180,19 @@
         <v>373743</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>347687</v>
+        <v>348444</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>395708</v>
+        <v>395197</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6416590940462108</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5969245790244651</v>
+        <v>0.5982244298322212</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6793695580294568</v>
+        <v>0.6784912327450733</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>120666</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>103365</v>
+        <v>103230</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>139107</v>
+        <v>138517</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.410761659806856</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3518691835862526</v>
+        <v>0.351407776932866</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4735382779429039</v>
+        <v>0.4715307375541444</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>86</v>
@@ -5230,19 +5230,19 @@
         <v>88055</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>72765</v>
+        <v>72786</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>104842</v>
+        <v>103865</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3050017542171501</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2520423087670558</v>
+        <v>0.2521130397092957</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3631473526517612</v>
+        <v>0.3597656045392972</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>193</v>
@@ -5251,19 +5251,19 @@
         <v>208721</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>186756</v>
+        <v>187267</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>234777</v>
+        <v>234020</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3583409059537892</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3206304419705432</v>
+        <v>0.3215087672549266</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4030754209755349</v>
+        <v>0.4017755701677786</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>242494</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>218933</v>
+        <v>219408</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>265720</v>
+        <v>265365</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4825026876505816</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4356229112976296</v>
+        <v>0.4365680475631258</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5287170785996059</v>
+        <v>0.528010213213069</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>318</v>
@@ -5376,19 +5376,19 @@
         <v>350605</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>329271</v>
+        <v>327537</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>372032</v>
+        <v>371975</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6702653655599723</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6294792623140326</v>
+        <v>0.626165771782494</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.711227193968238</v>
+        <v>0.7111195065298752</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>547</v>
@@ -5397,19 +5397,19 @@
         <v>593099</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>560520</v>
+        <v>561193</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>625574</v>
+        <v>624488</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5782612370232248</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5464973116585083</v>
+        <v>0.5471537084344036</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6099235168494956</v>
+        <v>0.6088646587168007</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>260081</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>236855</v>
+        <v>237210</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>283642</v>
+        <v>283167</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5174973123494184</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4712829214003944</v>
+        <v>0.4719897867869314</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5643770887023704</v>
+        <v>0.5634319524368745</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>166</v>
@@ -5447,19 +5447,19 @@
         <v>172479</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>151052</v>
+        <v>151109</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>193813</v>
+        <v>195547</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3297346344400277</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2887728060317621</v>
+        <v>0.288880493470124</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3705207376859675</v>
+        <v>0.3738342282175057</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>412</v>
@@ -5468,19 +5468,19 @@
         <v>432560</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>400085</v>
+        <v>401171</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>465139</v>
+        <v>464466</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4217387629767752</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3900764831505043</v>
+        <v>0.3911353412831993</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4535026883414915</v>
+        <v>0.4528462915655965</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>160975</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>143760</v>
+        <v>142794</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>178640</v>
+        <v>177720</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5053119915482625</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4512740602450155</v>
+        <v>0.4482408651980674</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.560765376952057</v>
+        <v>0.5578774161399581</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>213</v>
@@ -5593,19 +5593,19 @@
         <v>221382</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>202001</v>
+        <v>203646</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>237571</v>
+        <v>238700</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6582709601916298</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.600641545992021</v>
+        <v>0.6055331685461633</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7064061323887929</v>
+        <v>0.709762755488468</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>383</v>
@@ -5614,19 +5614,19 @@
         <v>382357</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>356811</v>
+        <v>358512</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>407890</v>
+        <v>404764</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5838637100809029</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5448550674801702</v>
+        <v>0.5474514164041183</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6228531707028424</v>
+        <v>0.61807856173092</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>157590</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>139925</v>
+        <v>140845</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>174805</v>
+        <v>175771</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4946880084517375</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4392346230479432</v>
+        <v>0.442122583860042</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5487259397549848</v>
+        <v>0.5517591348019326</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>119</v>
@@ -5664,19 +5664,19 @@
         <v>114927</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>98738</v>
+        <v>97609</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>134308</v>
+        <v>132663</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3417290398083702</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.293593867611207</v>
+        <v>0.290237244511532</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3993584540079789</v>
+        <v>0.3944668314538367</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>284</v>
@@ -5685,19 +5685,19 @@
         <v>272517</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>246984</v>
+        <v>250110</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>298063</v>
+        <v>296362</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4161362899190971</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3771468292971578</v>
+        <v>0.38192143826908</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4551449325198298</v>
+        <v>0.4525485835958818</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>225783</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>206601</v>
+        <v>204907</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>244282</v>
+        <v>242745</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6102833628052995</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5584352354983403</v>
+        <v>0.553856582701821</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6602866562122813</v>
+        <v>0.6561313770911567</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>260</v>
@@ -5810,19 +5810,19 @@
         <v>288673</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>270494</v>
+        <v>271816</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>303970</v>
+        <v>304086</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7453790067102243</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6984407385575442</v>
+        <v>0.7018535112342474</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7848782029586058</v>
+        <v>0.7851787954375606</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>478</v>
@@ -5831,19 +5831,19 @@
         <v>514455</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>487610</v>
+        <v>488991</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>539045</v>
+        <v>539198</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6793760715781182</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6439247651624007</v>
+        <v>0.645748323224929</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.711848594276537</v>
+        <v>0.7120498240843711</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>144181</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>125682</v>
+        <v>127219</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>163363</v>
+        <v>165057</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3897166371947005</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3397133437877188</v>
+        <v>0.3438686229088434</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4415647645016598</v>
+        <v>0.446143417298179</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>98</v>
@@ -5881,19 +5881,19 @@
         <v>98610</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>83313</v>
+        <v>83197</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>116789</v>
+        <v>115467</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2546209932897757</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2151217970413942</v>
+        <v>0.2148212045624393</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3015592614424558</v>
+        <v>0.2981464887657526</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>234</v>
@@ -5902,19 +5902,19 @@
         <v>242792</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>218202</v>
+        <v>218049</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>269637</v>
+        <v>268256</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3206239284218818</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.288151405723463</v>
+        <v>0.2879501759156289</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3560752348375992</v>
+        <v>0.354251676775071</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>91277</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>77632</v>
+        <v>76826</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>106644</v>
+        <v>106144</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4321377911495708</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3675400707331357</v>
+        <v>0.3637247036165928</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5048935616135886</v>
+        <v>0.502525238209122</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>142</v>
@@ -6027,19 +6027,19 @@
         <v>141724</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>127042</v>
+        <v>127193</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>155853</v>
+        <v>155131</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6483653979820905</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5811969255704524</v>
+        <v>0.581888490932771</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7130019076607262</v>
+        <v>0.7096977248384728</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>233</v>
@@ -6048,19 +6048,19 @@
         <v>233001</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>213868</v>
+        <v>213259</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>252115</v>
+        <v>253370</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5421044369220474</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4975901981275935</v>
+        <v>0.4961725327226155</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5865768628772129</v>
+        <v>0.5894958170466071</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>119944</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>104577</v>
+        <v>105077</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>133589</v>
+        <v>134395</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5678622088504292</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4951064383864113</v>
+        <v>0.4974747617908779</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6324599292668643</v>
+        <v>0.6362752963834072</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>81</v>
@@ -6098,19 +6098,19 @@
         <v>76863</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>62734</v>
+        <v>63456</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>91545</v>
+        <v>91394</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3516346020179095</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2869980923392744</v>
+        <v>0.2903022751615271</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4188030744295482</v>
+        <v>0.4181115090672292</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>202</v>
@@ -6119,19 +6119,19 @@
         <v>196807</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>177693</v>
+        <v>176438</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>215940</v>
+        <v>216549</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4578955630779526</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4134231371227871</v>
+        <v>0.4105041829533929</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5024098018724065</v>
+        <v>0.5038274672773846</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>121394</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>103763</v>
+        <v>104926</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>137779</v>
+        <v>138473</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4613565050771833</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3943521739124554</v>
+        <v>0.3987701235612304</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5236283299558837</v>
+        <v>0.5262666711454538</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>161</v>
@@ -6244,19 +6244,19 @@
         <v>173309</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>157788</v>
+        <v>157505</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>189141</v>
+        <v>188679</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6345625607405008</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5777336295148541</v>
+        <v>0.5766982382936409</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6925309845690529</v>
+        <v>0.6908403474102498</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>282</v>
@@ -6265,19 +6265,19 @@
         <v>294702</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>270783</v>
+        <v>272096</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>316741</v>
+        <v>316394</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5495732521218711</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5049683861166958</v>
+        <v>0.5074170204034554</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5906730540224931</v>
+        <v>0.5900250077960267</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>141729</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>125344</v>
+        <v>124650</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>159360</v>
+        <v>158197</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5386434949228166</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.476371670044116</v>
+        <v>0.4737333288545463</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6056478260875445</v>
+        <v>0.6012298764387696</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>102</v>
@@ -6315,19 +6315,19 @@
         <v>99806</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>83974</v>
+        <v>84436</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>115327</v>
+        <v>115610</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3654374392594992</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3074690154309469</v>
+        <v>0.3091596525897503</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4222663704851458</v>
+        <v>0.4233017617063591</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>240</v>
@@ -6336,19 +6336,19 @@
         <v>241536</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>219497</v>
+        <v>219844</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>265455</v>
+        <v>264142</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4504267478781289</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4093269459775069</v>
+        <v>0.4099749922039734</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4950316138833042</v>
+        <v>0.4925829795965446</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>298352</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>270568</v>
+        <v>272100</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>326552</v>
+        <v>324125</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4544186429512073</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4121011771431979</v>
+        <v>0.4144343150456662</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.497370051803174</v>
+        <v>0.4936728146730643</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>355</v>
@@ -6461,19 +6461,19 @@
         <v>393377</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>366707</v>
+        <v>368001</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>420923</v>
+        <v>421400</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5690443635945129</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5304640280963043</v>
+        <v>0.5323363720869588</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6088908046305688</v>
+        <v>0.609581733925576</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>620</v>
@@ -6482,19 +6482,19 @@
         <v>691729</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>653196</v>
+        <v>650978</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>729136</v>
+        <v>727158</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5132085346639556</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4846196416762757</v>
+        <v>0.4829741596588273</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5409611028998982</v>
+        <v>0.5394941936047709</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>358206</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>330006</v>
+        <v>332433</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>385990</v>
+        <v>384458</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5455813570487927</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.502629948196826</v>
+        <v>0.5063271853269358</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5878988228568021</v>
+        <v>0.5855656849543339</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>291</v>
@@ -6532,19 +6532,19 @@
         <v>297917</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>270371</v>
+        <v>269894</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>324587</v>
+        <v>323293</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.430955636405487</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3911091953694313</v>
+        <v>0.390418266074424</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4695359719036956</v>
+        <v>0.4676636279130412</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>606</v>
@@ -6553,19 +6553,19 @@
         <v>656123</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>618716</v>
+        <v>620694</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>694656</v>
+        <v>696874</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4867914653360445</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4590388971001018</v>
+        <v>0.4605058063952291</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5153803583237243</v>
+        <v>0.5170258403411728</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>376620</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>348822</v>
+        <v>346119</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>405348</v>
+        <v>405333</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4837244734087864</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.448021224172537</v>
+        <v>0.4445494162701884</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5206223221998312</v>
+        <v>0.5206036381530785</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>471</v>
@@ -6678,19 +6678,19 @@
         <v>528899</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>498382</v>
+        <v>499542</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>556781</v>
+        <v>555465</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6401837182167689</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6032455039826745</v>
+        <v>0.6046499349970563</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.673932729913535</v>
+        <v>0.672339441263337</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>839</v>
@@ -6699,19 +6699,19 @@
         <v>905518</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>869965</v>
+        <v>861948</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>948710</v>
+        <v>943543</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5642737585403492</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5421187011699696</v>
+        <v>0.5371231439670244</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5911883748263961</v>
+        <v>0.5879689951596552</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>401963</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>373235</v>
+        <v>373250</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>429761</v>
+        <v>432464</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5162755265912136</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4793776778001687</v>
+        <v>0.4793963618469214</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.551978775827463</v>
+        <v>0.5554505837298116</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>284</v>
@@ -6749,19 +6749,19 @@
         <v>297268</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>269386</v>
+        <v>270702</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>327785</v>
+        <v>326625</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3598162817832311</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.326067270086465</v>
+        <v>0.3276605587366631</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3967544960173254</v>
+        <v>0.3953500650029437</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>666</v>
@@ -6770,19 +6770,19 @@
         <v>699232</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>656040</v>
+        <v>661207</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>734785</v>
+        <v>742802</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4357262414596507</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4088116251736039</v>
+        <v>0.4120310048403448</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4578812988300304</v>
+        <v>0.4628768560329752</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>1689989</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1633370</v>
+        <v>1630751</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1743949</v>
+        <v>1751171</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.497882819009114</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4812026742259131</v>
+        <v>0.4804309908674266</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5137800044849611</v>
+        <v>0.5159076738025561</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2111</v>
@@ -6895,19 +6895,19 @@
         <v>2298617</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2237161</v>
+        <v>2240977</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2358284</v>
+        <v>2359504</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6484946858528446</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6311566353387356</v>
+        <v>0.6322330969634893</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6653283202951705</v>
+        <v>0.6656723996851344</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3732</v>
@@ -6916,19 +6916,19 @@
         <v>3988605</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3899348</v>
+        <v>3901265</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4065458</v>
+        <v>4077946</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5748187421006086</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.561955432459523</v>
+        <v>0.5622317470692983</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5858943776659914</v>
+        <v>0.5876940715109631</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>1704361</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1650401</v>
+        <v>1643179</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1760980</v>
+        <v>1763599</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5021171809908861</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.486219995515039</v>
+        <v>0.484092326197444</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5187973257740871</v>
+        <v>0.5195690091325734</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1227</v>
@@ -6966,19 +6966,19 @@
         <v>1245925</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1186258</v>
+        <v>1185038</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1307381</v>
+        <v>1303565</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3515053141471553</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3346716797048295</v>
+        <v>0.3343276003148656</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3688433646612644</v>
+        <v>0.3677669030365108</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2837</v>
@@ -6987,19 +6987,19 @@
         <v>2950287</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2873434</v>
+        <v>2860946</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3039544</v>
+        <v>3037627</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4251812578993914</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4141056223340086</v>
+        <v>0.4123059284890368</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4380445675404771</v>
+        <v>0.4377682529307017</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>202842</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>185079</v>
+        <v>185381</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>221115</v>
+        <v>220424</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6361762932974162</v>
+        <v>0.6361762932974163</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.580466535857888</v>
+        <v>0.5814141407953589</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6934879280443886</v>
+        <v>0.6913186724021122</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>405</v>
@@ -7356,19 +7356,19 @@
         <v>230530</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>216433</v>
+        <v>214818</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>242901</v>
+        <v>243111</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7293846794295276</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6847833623363706</v>
+        <v>0.6796729304001329</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7685252620638139</v>
+        <v>0.769188893407988</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>627</v>
@@ -7377,19 +7377,19 @@
         <v>433372</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>411294</v>
+        <v>410401</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>457108</v>
+        <v>456023</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6825760847228372</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6478036758354543</v>
+        <v>0.6463962396279416</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7199617366080692</v>
+        <v>0.7182525132774169</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>116003</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>97730</v>
+        <v>98421</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>133766</v>
+        <v>133464</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3638237067025837</v>
+        <v>0.3638237067025838</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3065120719556115</v>
+        <v>0.3086813275978879</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.419533464142112</v>
+        <v>0.4185858592046411</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>133</v>
@@ -7427,19 +7427,19 @@
         <v>85531</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>73160</v>
+        <v>72950</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>99628</v>
+        <v>101243</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2706153205704724</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2314747379361861</v>
+        <v>0.230811106592012</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3152166376636294</v>
+        <v>0.3203270695998671</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>242</v>
@@ -7448,19 +7448,19 @@
         <v>201534</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>177798</v>
+        <v>178883</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>223612</v>
+        <v>224505</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3174239152771628</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2800382633919311</v>
+        <v>0.2817474867225835</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3521963241645457</v>
+        <v>0.3536037603720583</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>263538</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>236365</v>
+        <v>234037</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>299188</v>
+        <v>293322</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4966344716616645</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4454270848735169</v>
+        <v>0.4410405625379373</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.563816597889528</v>
+        <v>0.5527627539130533</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>486</v>
@@ -7573,19 +7573,19 @@
         <v>346257</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>325639</v>
+        <v>324464</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>367578</v>
+        <v>367002</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6343915483471774</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5966166733376339</v>
+        <v>0.5944635533619479</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6734557412028492</v>
+        <v>0.6724004625018885</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>706</v>
@@ -7594,19 +7594,19 @@
         <v>609794</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>574162</v>
+        <v>574287</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>648477</v>
+        <v>647470</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5664832009520577</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5333818670476521</v>
+        <v>0.5334980220169387</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6024185884459982</v>
+        <v>0.6014825580942321</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>267109</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>231459</v>
+        <v>237325</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>294282</v>
+        <v>296610</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5033655283383355</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.436183402110472</v>
+        <v>0.4472372460869471</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5545729151264833</v>
+        <v>0.5589594374620628</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>230</v>
@@ -7644,19 +7644,19 @@
         <v>199552</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>178231</v>
+        <v>178807</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>220170</v>
+        <v>221345</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.3656084516528227</v>
+        <v>0.3656084516528226</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3265442587971509</v>
+        <v>0.3275995374981115</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4033833266623661</v>
+        <v>0.4055364466380521</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>392</v>
@@ -7665,19 +7665,19 @@
         <v>466662</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>427979</v>
+        <v>428986</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>502294</v>
+        <v>502169</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4335167990479422</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3975814115540017</v>
+        <v>0.3985174419057678</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4666181329523479</v>
+        <v>0.4665019779830611</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>187762</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>171392</v>
+        <v>170123</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>203803</v>
+        <v>205260</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5941969865065105</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5423919354105495</v>
+        <v>0.5383759629227816</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6449589161880455</v>
+        <v>0.6495719676556808</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>402</v>
@@ -7790,19 +7790,19 @@
         <v>250083</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>233366</v>
+        <v>234971</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>264924</v>
+        <v>264197</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7017288333998708</v>
+        <v>0.7017288333998707</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6548214309346697</v>
+        <v>0.6593240227297708</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7433725317597087</v>
+        <v>0.7413326641528651</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>637</v>
@@ -7811,19 +7811,19 @@
         <v>437846</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>414151</v>
+        <v>415275</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>459981</v>
+        <v>461008</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6511924977986278</v>
+        <v>0.6511924977986276</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.615952099364712</v>
+        <v>0.6176237741458299</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.684113499103876</v>
+        <v>0.6856413504983586</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>128231</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>112190</v>
+        <v>110733</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>144601</v>
+        <v>145870</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4058030134934895</v>
+        <v>0.4058030134934894</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3550410838119545</v>
+        <v>0.3504280323443191</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4576080645894506</v>
+        <v>0.4616240370772186</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>134</v>
@@ -7861,19 +7861,19 @@
         <v>106298</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>91457</v>
+        <v>92184</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>123015</v>
+        <v>121410</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2982711666001293</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2566274682402913</v>
+        <v>0.2586673358471348</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3451785690653306</v>
+        <v>0.3406759772702292</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>259</v>
@@ -7882,19 +7882,19 @@
         <v>234529</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>212394</v>
+        <v>211367</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>258224</v>
+        <v>257100</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3488075022013724</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3158865008961238</v>
+        <v>0.3143586495016421</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3840479006352879</v>
+        <v>0.3823762258541707</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>203117</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>176094</v>
+        <v>177883</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>229978</v>
+        <v>227773</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.5443383661983672</v>
+        <v>0.5443383661983671</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4719175290862174</v>
+        <v>0.4767135639057326</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6163239520891575</v>
+        <v>0.6104140905631641</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>429</v>
@@ -8007,19 +8007,19 @@
         <v>272099</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>251735</v>
+        <v>251374</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>291188</v>
+        <v>290799</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.6448432524910002</v>
+        <v>0.6448432524910003</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5965840195332099</v>
+        <v>0.5957287061752962</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6900834195690694</v>
+        <v>0.6891596934369154</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>615</v>
@@ -8028,19 +8028,19 @@
         <v>475216</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>444386</v>
+        <v>440688</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>509048</v>
+        <v>507789</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.5976760966090605</v>
+        <v>0.5976760966090604</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5589004068656045</v>
+        <v>0.5542498395123329</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6402259923013368</v>
+        <v>0.6386419458574711</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>170028</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>143167</v>
+        <v>145372</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>197051</v>
+        <v>195262</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.455661633801633</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3836760479108425</v>
+        <v>0.3895859094368356</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5280824709137825</v>
+        <v>0.5232864360942671</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>170</v>
@@ -8078,19 +8078,19 @@
         <v>149862</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>130773</v>
+        <v>131162</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>170226</v>
+        <v>170587</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3551567475089999</v>
+        <v>0.355156747509</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3099165804309307</v>
+        <v>0.3108403065630845</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4034159804667901</v>
+        <v>0.4042712938247039</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>276</v>
@@ -8099,19 +8099,19 @@
         <v>319891</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>286059</v>
+        <v>287318</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>350721</v>
+        <v>354419</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4023239033909394</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3597740076986631</v>
+        <v>0.3613580541425287</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4410995931343953</v>
+        <v>0.4457501604876672</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>93995</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81991</v>
+        <v>81086</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>106116</v>
+        <v>106388</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4570285437688881</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3986619373186737</v>
+        <v>0.3942633151619832</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5159634727213956</v>
+        <v>0.5172895646108145</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>333</v>
@@ -8224,19 +8224,19 @@
         <v>141831</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>130586</v>
+        <v>129424</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>152434</v>
+        <v>152565</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6242131785106024</v>
+        <v>0.6242131785106022</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5747254259103579</v>
+        <v>0.5696110958044588</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6708780979523441</v>
+        <v>0.6714558737497954</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>477</v>
@@ -8245,19 +8245,19 @@
         <v>235825</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>217587</v>
+        <v>219316</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>252137</v>
+        <v>252316</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5447823259633666</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5026507139756468</v>
+        <v>0.5066445908481526</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5824646229635552</v>
+        <v>0.5828789657186177</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>111670</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>99549</v>
+        <v>99277</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>123674</v>
+        <v>124579</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5429714562311119</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4840365272786044</v>
+        <v>0.4827104353891855</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6013380626813263</v>
+        <v>0.6057366848380168</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>159</v>
@@ -8295,19 +8295,19 @@
         <v>85384</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>74781</v>
+        <v>74650</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>96629</v>
+        <v>97791</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3757868214893977</v>
+        <v>0.3757868214893976</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3291219020476562</v>
+        <v>0.3285441262502046</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4252745740896424</v>
+        <v>0.4303889041955411</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>294</v>
@@ -8316,19 +8316,19 @@
         <v>197054</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>180742</v>
+        <v>180563</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>215292</v>
+        <v>213563</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4552176740366334</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4175353770364449</v>
+        <v>0.4171210342813822</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4973492860243534</v>
+        <v>0.4933554091518473</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>155536</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>140248</v>
+        <v>140641</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>170259</v>
+        <v>170661</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.5745561804477477</v>
+        <v>0.5745561804477478</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5180793617281672</v>
+        <v>0.519531068162897</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6289412582685933</v>
+        <v>0.6304259226443798</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>334</v>
@@ -8441,19 +8441,19 @@
         <v>170963</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>157923</v>
+        <v>158271</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>183194</v>
+        <v>183223</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.6482017005164852</v>
+        <v>0.6482017005164848</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5987604052818372</v>
+        <v>0.6000789747671822</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6945741633770266</v>
+        <v>0.6946854189332542</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>583</v>
@@ -8462,19 +8462,19 @@
         <v>326500</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>306529</v>
+        <v>306048</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>344797</v>
+        <v>346449</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.6108996422426213</v>
+        <v>0.6108996422426214</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5735333009475417</v>
+        <v>0.5726344203524436</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6451359957793044</v>
+        <v>0.6482265482809288</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>115171</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>100448</v>
+        <v>100046</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>130459</v>
+        <v>130066</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4254438195522524</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3710587417314068</v>
+        <v>0.3695740773556203</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4819206382718328</v>
+        <v>0.4804689318371029</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>126</v>
@@ -8512,19 +8512,19 @@
         <v>92787</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>80556</v>
+        <v>80527</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>105827</v>
+        <v>105479</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.351798299483515</v>
+        <v>0.3517982994835148</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3054258366229737</v>
+        <v>0.3053145810667465</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4012395947181632</v>
+        <v>0.3999210252328179</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>248</v>
@@ -8533,19 +8533,19 @@
         <v>207957</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>189660</v>
+        <v>188008</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>227928</v>
+        <v>228409</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3891003577573787</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3548640042206959</v>
+        <v>0.3517734517190712</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4264666990524585</v>
+        <v>0.4273655796475565</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>439105</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>407214</v>
+        <v>405391</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>466141</v>
+        <v>469022</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6101338950012397</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5658206399928899</v>
+        <v>0.563288374922696</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6476992637238458</v>
+        <v>0.6517022346935191</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>682</v>
@@ -8658,19 +8658,19 @@
         <v>533045</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>508647</v>
+        <v>508879</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>555291</v>
+        <v>557540</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6904215930404821</v>
+        <v>0.690421593040482</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6588202497248662</v>
+        <v>0.6591215262251773</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7192356249520555</v>
+        <v>0.7221484894308871</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1069</v>
@@ -8679,19 +8679,19 @@
         <v>972150</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>932454</v>
+        <v>924762</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1010665</v>
+        <v>1007986</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6516870492075604</v>
+        <v>0.6516870492075606</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6250767304847579</v>
+        <v>0.6199201511085564</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6775059623215131</v>
+        <v>0.6757095084303906</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>280582</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>253546</v>
+        <v>250665</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>312473</v>
+        <v>314296</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3898661049987604</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3523007362761542</v>
+        <v>0.3482977653064809</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4341793600071103</v>
+        <v>0.4367116250773038</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>278</v>
@@ -8729,19 +8729,19 @@
         <v>239012</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>216766</v>
+        <v>214517</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>263410</v>
+        <v>263178</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3095784069595177</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2807643750479447</v>
+        <v>0.2778515105691132</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3411797502751339</v>
+        <v>0.3408784737748228</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>490</v>
@@ -8750,19 +8750,19 @@
         <v>519594</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>481079</v>
+        <v>483758</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>559290</v>
+        <v>566982</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.3483129507924395</v>
+        <v>0.3483129507924396</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3224940376784871</v>
+        <v>0.3242904915696094</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3749232695152422</v>
+        <v>0.3800798488914436</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>299402</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>270312</v>
+        <v>271987</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>326570</v>
+        <v>328097</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3751571950970207</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3387066752941367</v>
+        <v>0.3408047602749551</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.409199017866914</v>
+        <v>0.4111121315763822</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>596</v>
@@ -8875,19 +8875,19 @@
         <v>419769</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>393062</v>
+        <v>393687</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>444930</v>
+        <v>446655</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5057416983379341</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4735650900847009</v>
+        <v>0.4743187380369639</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5360561405871844</v>
+        <v>0.5381341252996655</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>941</v>
@@ -8896,19 +8896,19 @@
         <v>719171</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>676734</v>
+        <v>680622</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>756787</v>
+        <v>758271</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4417301135787351</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4156646602648934</v>
+        <v>0.4180524527933546</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4648349099304602</v>
+        <v>0.465746314753984</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>498670</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>471502</v>
+        <v>469975</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>527760</v>
+        <v>526085</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6248428049029793</v>
+        <v>0.6248428049029794</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5908009821330861</v>
+        <v>0.5888878684236177</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6612933247058632</v>
+        <v>0.6591952397250443</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>464</v>
@@ -8946,19 +8946,19 @@
         <v>410237</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>385076</v>
+        <v>383351</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>436944</v>
+        <v>436319</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4942583016620659</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4639438594128157</v>
+        <v>0.4618658747003345</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5264349099152992</v>
+        <v>0.5256812619630361</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>881</v>
@@ -8967,19 +8967,19 @@
         <v>908907</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>871291</v>
+        <v>869807</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>951344</v>
+        <v>947456</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.5582698864212648</v>
+        <v>0.5582698864212651</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5351650900695398</v>
+        <v>0.5342536852460162</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5843353397351067</v>
+        <v>0.581947547206646</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>1845298</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1777693</v>
+        <v>1776200</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1912834</v>
+        <v>1912555</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5223386540422841</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5032021453825413</v>
+        <v>0.502779326685167</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5414555268577151</v>
+        <v>0.5413766916103753</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3667</v>
@@ -9092,19 +9092,19 @@
         <v>2364576</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2312242</v>
+        <v>2308505</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2421412</v>
+        <v>2413954</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6333842766539352</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.619365904362322</v>
+        <v>0.6183647945765089</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6486085641057483</v>
+        <v>0.6466108111255088</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>5655</v>
@@ -9113,19 +9113,19 @@
         <v>4209874</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4126914</v>
+        <v>4127372</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4298397</v>
+        <v>4296494</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5793934134624155</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5679757667926241</v>
+        <v>0.5680388445283928</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.591576507911068</v>
+        <v>0.5913147141511147</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>1687464</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1619928</v>
+        <v>1620207</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1755069</v>
+        <v>1756562</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4776613459577161</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4585444731422851</v>
+        <v>0.4586233083896247</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.496797854617459</v>
+        <v>0.4972206733148329</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1694</v>
@@ -9163,19 +9163,19 @@
         <v>1368665</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1311829</v>
+        <v>1319287</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1420999</v>
+        <v>1424736</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3666157233460649</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3513914358942516</v>
+        <v>0.3533891888744914</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3806340956376781</v>
+        <v>0.3816352054234916</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3082</v>
@@ -9184,19 +9184,19 @@
         <v>3056129</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2967606</v>
+        <v>2969509</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3139089</v>
+        <v>3138631</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.4206065865375846</v>
+        <v>0.4206065865375845</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4084234920889331</v>
+        <v>0.4086852858488855</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4320242332073758</v>
+        <v>0.4319611554716074</v>
       </c>
     </row>
     <row r="30">
